--- a/excel/student1.xlsx
+++ b/excel/student1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\JAVA_Proekt\Student_proekt\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF27BE16-07A4-459D-8E85-7C55EAFD3955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93B2B54-DCDE-4BF8-BC81-A097EB0C9A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,14 +51,14 @@
     <t>address</t>
   </si>
   <si>
-    <t>10.02.2022</t>
+    <t>sana:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +76,15 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -115,15 +124,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -404,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:H106"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -421,42 +433,42 @@
     <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="3" t="s">
+    <row r="2" spans="1:7" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1065,7 +1077,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
